--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_15_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1566309.509945041</v>
+        <v>1505026.549621485</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2808840.042971396</v>
+        <v>2808840.042971394</v>
       </c>
     </row>
     <row r="8">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>115.836919585238</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>115.836919585238</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>115.836919585238</v>
+      </c>
+      <c r="Y12" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="T12" t="n">
-        <v>115.836919585238</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,52 +1542,52 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.67455679469457</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="J13" t="n">
-        <v>64.01066663453935</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>60.61999804091276</v>
-      </c>
-      <c r="R13" t="n">
-        <v>32.55719773372718</v>
-      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>131.5133056144847</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>115.836919585238</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>131.5133056144847</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>131.5133056144847</v>
       </c>
       <c r="X15" t="n">
-        <v>115.836919585238</v>
+        <v>130.7766753362999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>32.55719773372718</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>25.67455679469453</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>131.5133056144847</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,29 +1843,29 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>126.033025580236</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>126.033025580236</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,76 +1922,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.21282250669157</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>75.82020307354448</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="W18" t="n">
         <v>143.0892660992689</v>
       </c>
       <c r="X18" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>126.033025580236</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>134.0359414396109</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>73.4159433986981</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>42.52618265330152</v>
       </c>
       <c r="D20" t="n">
-        <v>42.52618265330152</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>143.0892660992689</v>
@@ -2131,19 +2131,19 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.0892660992689</v>
+        <v>126.033025580236</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>143.0892660992689</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
       <c r="X21" t="n">
-        <v>50.21282250669157</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
     </row>
     <row r="22">
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="E22" t="n">
-        <v>134.0359414396109</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>70.02527480507149</v>
       </c>
       <c r="U22" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.7433836925933</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>125.7122722899241</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>91.42471578726145</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>147.7959531409774</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>173.9700088726122</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U24" t="n">
         <v>237.165658224938</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>21.40961679729286</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>36.61601985200799</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>253.7572926661764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>205.4340143556813</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>47.12419068715453</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>187.1142161021862</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.99639847545617</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S27" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>211.1471930106489</v>
       </c>
       <c r="U27" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2699,10 +2699,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>51.01200319143472</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>22.2341689147483</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>167.6695982996953</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U28" t="n">
-        <v>252.5448753384534</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>187.1142161021862</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0086995935164</v>
+        <v>234.5896421639962</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>91.9435416085982</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>43.76405560215632</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.165658224938</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>42.67314168779776</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>129.9037665488134</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.6750201889934</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.89532616447698</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S32" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0086995935164</v>
@@ -3091,13 +3091,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.6026997533962</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>100.1367692955826</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>173.9700088726122</v>
@@ -3170,7 +3170,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>21.4274262393492</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>167.6695982996953</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>191.9248772975407</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>53.45399244520303</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>225.9821707808416</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I35" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>224.9541970662457</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>41.89020990626017</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S36" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>204.8631032064436</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.6012976192668</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>131.6012976192669</v>
       </c>
       <c r="U37" t="n">
         <v>288.6131760188819</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>393.7639284834527</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>393.7639284834527</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>268.5844369213996</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2984589326654</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7959531409774</v>
+        <v>18.41740083682912</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V39" t="n">
-        <v>194.9656979681585</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.8197438131902</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>56.96050148368874</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.14922438866761</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>382.1879679986685</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>328.8634192398093</v>
+        <v>27.51318878390566</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3836,10 +3836,10 @@
         <v>147.7959531409774</v>
       </c>
       <c r="H42" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.8346152604656</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.1471930106489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>3.596403780856279</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9054575162844</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>188.2983494873247</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>129.9037665488135</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>174.6849466390094</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>108.715308255194</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.1879679986685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>19.72212479520069</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>80.33485270008424</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>93.79157248223152</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>158.7533028562218</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>167.6695982996953</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>129.9037665488135</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.2045101349865</v>
+        <v>127.5280539291972</v>
       </c>
       <c r="C11" t="n">
-        <v>276.2045101349865</v>
+        <v>127.5280539291972</v>
       </c>
       <c r="D11" t="n">
-        <v>276.2045101349865</v>
+        <v>127.5280539291972</v>
       </c>
       <c r="E11" t="n">
-        <v>276.2045101349865</v>
+        <v>127.5280539291972</v>
       </c>
       <c r="F11" t="n">
-        <v>143.3627872920727</v>
+        <v>127.5280539291972</v>
       </c>
       <c r="G11" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="H11" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I11" t="n">
         <v>10.52106444915878</v>
       </c>
       <c r="J11" t="n">
-        <v>10.52106444915878</v>
+        <v>35.48475180136066</v>
       </c>
       <c r="K11" t="n">
-        <v>19.19529492808726</v>
+        <v>44.15898228028914</v>
       </c>
       <c r="L11" t="n">
-        <v>101.5114803768218</v>
+        <v>99.94028168401307</v>
       </c>
       <c r="M11" t="n">
-        <v>202.2156375510082</v>
+        <v>200.6444388581995</v>
       </c>
       <c r="N11" t="n">
-        <v>310.178139493404</v>
+        <v>308.6069408005952</v>
       </c>
       <c r="O11" t="n">
-        <v>395.855049899599</v>
+        <v>394.2838512067902</v>
       </c>
       <c r="P11" t="n">
-        <v>526.0532224579389</v>
+        <v>425.3158909851745</v>
       </c>
       <c r="Q11" t="n">
         <v>526.0532224579389</v>
@@ -5074,10 +5074,10 @@
         <v>526.0532224579389</v>
       </c>
       <c r="U11" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="V11" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="W11" t="n">
         <v>393.211499615025</v>
@@ -5086,7 +5086,7 @@
         <v>393.211499615025</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.2045101349865</v>
+        <v>260.3697767721111</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52106444915878</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="D12" t="n">
         <v>10.52106444915878</v>
@@ -5123,13 +5123,13 @@
         <v>10.52106444915878</v>
       </c>
       <c r="K12" t="n">
-        <v>30.47917437752744</v>
+        <v>30.4791743775277</v>
       </c>
       <c r="L12" t="n">
-        <v>113.8288163692506</v>
+        <v>113.8288163692507</v>
       </c>
       <c r="M12" t="n">
-        <v>234.7092963951246</v>
+        <v>234.7092963951245</v>
       </c>
       <c r="N12" t="n">
         <v>364.9074689534644</v>
@@ -5147,25 +5147,25 @@
         <v>526.0532224579389</v>
       </c>
       <c r="S12" t="n">
-        <v>393.211499615025</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="T12" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="U12" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="V12" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="W12" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="X12" t="n">
+        <v>409.0462329779004</v>
+      </c>
+      <c r="Y12" t="n">
         <v>276.2045101349865</v>
-      </c>
-      <c r="U12" t="n">
-        <v>276.2045101349865</v>
-      </c>
-      <c r="V12" t="n">
-        <v>276.2045101349865</v>
-      </c>
-      <c r="W12" t="n">
-        <v>276.2045101349865</v>
-      </c>
-      <c r="X12" t="n">
-        <v>143.3627872920727</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>143.3627872920727</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="C13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="D13" t="n">
-        <v>208.0200263168599</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="E13" t="n">
-        <v>208.0200263168599</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="F13" t="n">
-        <v>208.0200263168599</v>
+        <v>36.45496020137551</v>
       </c>
       <c r="G13" t="n">
-        <v>208.0200263168599</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="H13" t="n">
-        <v>208.0200263168599</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I13" t="n">
-        <v>75.17830347394602</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="J13" t="n">
         <v>10.52106444915878</v>
@@ -5220,31 +5220,31 @@
         <v>434.9801287301171</v>
       </c>
       <c r="Q13" t="n">
-        <v>373.7478074766699</v>
+        <v>434.9801287301171</v>
       </c>
       <c r="R13" t="n">
-        <v>340.8617491597738</v>
+        <v>302.1384058872032</v>
       </c>
       <c r="S13" t="n">
-        <v>340.8617491597738</v>
+        <v>302.1384058872032</v>
       </c>
       <c r="T13" t="n">
-        <v>340.8617491597738</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="U13" t="n">
-        <v>340.8617491597738</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="V13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="W13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="X13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.0200263168599</v>
+        <v>169.2966830442894</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.211499615025</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="C14" t="n">
-        <v>393.211499615025</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="D14" t="n">
-        <v>393.211499615025</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="E14" t="n">
-        <v>393.211499615025</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="F14" t="n">
-        <v>276.2045101349865</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="G14" t="n">
         <v>143.3627872920727</v>
       </c>
       <c r="H14" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I14" t="n">
         <v>10.52106444915878</v>
       </c>
       <c r="J14" t="n">
-        <v>14.82027987822531</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="K14" t="n">
-        <v>23.49451035715379</v>
+        <v>19.19529492808726</v>
       </c>
       <c r="L14" t="n">
-        <v>79.27580976087772</v>
+        <v>74.97659433181119</v>
       </c>
       <c r="M14" t="n">
-        <v>179.9799669350641</v>
+        <v>175.6807515059976</v>
       </c>
       <c r="N14" t="n">
-        <v>310.178139493404</v>
+        <v>283.6432534483934</v>
       </c>
       <c r="O14" t="n">
-        <v>395.855049899599</v>
+        <v>394.2838512067902</v>
       </c>
       <c r="P14" t="n">
-        <v>526.0532224579389</v>
+        <v>425.3158909851745</v>
       </c>
       <c r="Q14" t="n">
         <v>526.0532224579389</v>
@@ -5305,25 +5305,25 @@
         <v>526.0532224579389</v>
       </c>
       <c r="S14" t="n">
-        <v>393.211499615025</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="T14" t="n">
-        <v>393.211499615025</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="U14" t="n">
-        <v>393.211499615025</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="V14" t="n">
-        <v>393.211499615025</v>
+        <v>526.0532224579389</v>
       </c>
       <c r="W14" t="n">
-        <v>393.211499615025</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="X14" t="n">
-        <v>393.211499615025</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.211499615025</v>
+        <v>276.2045101349865</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="C15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="D15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="E15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="F15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="G15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="H15" t="n">
         <v>10.52106444915878</v>
@@ -5366,13 +5366,13 @@
         <v>113.8288163692507</v>
       </c>
       <c r="M15" t="n">
-        <v>234.7092963951245</v>
+        <v>234.7092963951246</v>
       </c>
       <c r="N15" t="n">
         <v>364.9074689534644</v>
       </c>
       <c r="O15" t="n">
-        <v>467.3890552974451</v>
+        <v>467.3890552974452</v>
       </c>
       <c r="P15" t="n">
         <v>526.0532224579389</v>
@@ -5384,25 +5384,25 @@
         <v>526.0532224579389</v>
       </c>
       <c r="S15" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="T15" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="U15" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="V15" t="n">
+        <v>526.0532224579389</v>
+      </c>
+      <c r="W15" t="n">
         <v>393.211499615025</v>
       </c>
-      <c r="T15" t="n">
-        <v>393.211499615025</v>
-      </c>
-      <c r="U15" t="n">
-        <v>260.3697767721111</v>
-      </c>
-      <c r="V15" t="n">
-        <v>260.3697767721111</v>
-      </c>
-      <c r="W15" t="n">
-        <v>127.5280539291972</v>
-      </c>
       <c r="X15" t="n">
-        <v>10.52106444915878</v>
+        <v>261.1138477601766</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="F16" t="n">
-        <v>10.52106444915878</v>
+        <v>75.17830347394602</v>
       </c>
       <c r="G16" t="n">
-        <v>10.52106444915878</v>
+        <v>75.17830347394602</v>
       </c>
       <c r="H16" t="n">
-        <v>10.52106444915878</v>
+        <v>75.17830347394602</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52106444915878</v>
+        <v>75.17830347394602</v>
       </c>
       <c r="J16" t="n">
         <v>10.52106444915878</v>
@@ -5457,31 +5457,31 @@
         <v>434.9801287301171</v>
       </c>
       <c r="Q16" t="n">
-        <v>434.9801287301171</v>
+        <v>373.7478074766699</v>
       </c>
       <c r="R16" t="n">
-        <v>434.9801287301171</v>
+        <v>240.906084633756</v>
       </c>
       <c r="S16" t="n">
-        <v>434.9801287301171</v>
+        <v>240.906084633756</v>
       </c>
       <c r="T16" t="n">
-        <v>302.1384058872032</v>
+        <v>240.906084633756</v>
       </c>
       <c r="U16" t="n">
-        <v>276.2045101349865</v>
+        <v>240.906084633756</v>
       </c>
       <c r="V16" t="n">
-        <v>143.3627872920727</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="W16" t="n">
-        <v>143.3627872920727</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.2878399541081</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="C17" t="n">
-        <v>283.2878399541081</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="D17" t="n">
-        <v>283.2878399541081</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="E17" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="F17" t="n">
-        <v>155.9817535094253</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="G17" t="n">
         <v>155.9817535094253</v>
       </c>
       <c r="H17" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="I17" t="n">
         <v>11.44714128794152</v>
       </c>
       <c r="J17" t="n">
-        <v>84.41168035927494</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="K17" t="n">
-        <v>116.55006793222</v>
+        <v>20.12137176687</v>
       </c>
       <c r="L17" t="n">
-        <v>172.331367335944</v>
+        <v>75.90267117059392</v>
       </c>
       <c r="M17" t="n">
-        <v>313.9897407742202</v>
+        <v>176.6068283447803</v>
       </c>
       <c r="N17" t="n">
-        <v>455.6481142124965</v>
+        <v>298.9293197076508</v>
       </c>
       <c r="O17" t="n">
-        <v>541.3250246186915</v>
+        <v>440.5876931459271</v>
       </c>
       <c r="P17" t="n">
-        <v>572.3570643970758</v>
+        <v>471.6197329243114</v>
       </c>
       <c r="Q17" t="n">
         <v>572.3570643970758</v>
@@ -5542,13 +5542,13 @@
         <v>572.3570643970758</v>
       </c>
       <c r="S17" t="n">
-        <v>427.8224521755919</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="T17" t="n">
-        <v>427.8224521755919</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="U17" t="n">
-        <v>427.8224521755919</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="V17" t="n">
         <v>427.8224521755919</v>
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="C18" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="D18" t="n">
         <v>11.44714128794152</v>
@@ -5594,10 +5594,10 @@
         <v>11.44714128794152</v>
       </c>
       <c r="J18" t="n">
-        <v>11.44714128794152</v>
+        <v>45.36470550835922</v>
       </c>
       <c r="K18" t="n">
-        <v>31.40525121631044</v>
+        <v>65.32281543672815</v>
       </c>
       <c r="L18" t="n">
         <v>148.6724574284511</v>
@@ -5618,28 +5618,28 @@
         <v>572.3570643970758</v>
       </c>
       <c r="R18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="S18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="T18" t="n">
-        <v>495.7710006864248</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="U18" t="n">
-        <v>495.7710006864248</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="V18" t="n">
-        <v>495.7710006864248</v>
+        <v>283.2878399541081</v>
       </c>
       <c r="W18" t="n">
-        <v>351.236388464941</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="X18" t="n">
-        <v>206.7017762434572</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="Y18" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.44714128794152</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="C19" t="n">
         <v>11.44714128794152</v>
@@ -5694,31 +5694,31 @@
         <v>435.9062055688999</v>
       </c>
       <c r="Q19" t="n">
-        <v>374.6738843154527</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="R19" t="n">
-        <v>374.6738843154527</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="S19" t="n">
-        <v>230.1392720939689</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1392720939689</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="U19" t="n">
-        <v>155.9817535094253</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="V19" t="n">
-        <v>155.9817535094253</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="W19" t="n">
-        <v>11.44714128794152</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="X19" t="n">
-        <v>11.44714128794152</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.44714128794152</v>
+        <v>291.3715933474161</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>343.472105784749</v>
       </c>
       <c r="C20" t="n">
-        <v>343.472105784749</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="D20" t="n">
-        <v>300.5163657309091</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="E20" t="n">
-        <v>300.5163657309091</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="F20" t="n">
         <v>155.9817535094253</v>
@@ -5752,25 +5752,25 @@
         <v>11.44714128794152</v>
       </c>
       <c r="J20" t="n">
-        <v>11.44714128794152</v>
+        <v>84.41168035927494</v>
       </c>
       <c r="K20" t="n">
-        <v>20.12137176687</v>
+        <v>93.08591083820342</v>
       </c>
       <c r="L20" t="n">
-        <v>161.7797452051462</v>
+        <v>148.8672102419274</v>
       </c>
       <c r="M20" t="n">
-        <v>262.4839023793326</v>
+        <v>249.5713674161137</v>
       </c>
       <c r="N20" t="n">
-        <v>370.4464043217284</v>
+        <v>357.5338693585095</v>
       </c>
       <c r="O20" t="n">
-        <v>456.1233147279234</v>
+        <v>443.2107797647045</v>
       </c>
       <c r="P20" t="n">
-        <v>572.3570643970758</v>
+        <v>474.2428195430888</v>
       </c>
       <c r="Q20" t="n">
         <v>572.3570643970758</v>
@@ -5779,16 +5779,16 @@
         <v>488.0067180062328</v>
       </c>
       <c r="S20" t="n">
-        <v>343.472105784749</v>
+        <v>488.0067180062328</v>
       </c>
       <c r="T20" t="n">
-        <v>343.472105784749</v>
+        <v>488.0067180062328</v>
       </c>
       <c r="U20" t="n">
-        <v>343.472105784749</v>
+        <v>488.0067180062328</v>
       </c>
       <c r="V20" t="n">
-        <v>343.472105784749</v>
+        <v>488.0067180062328</v>
       </c>
       <c r="W20" t="n">
         <v>343.472105784749</v>
@@ -5834,46 +5834,46 @@
         <v>11.44714128794152</v>
       </c>
       <c r="K21" t="n">
-        <v>65.32281543672815</v>
+        <v>31.40525121631044</v>
       </c>
       <c r="L21" t="n">
-        <v>148.6724574284511</v>
+        <v>114.7548932080334</v>
       </c>
       <c r="M21" t="n">
-        <v>269.552937454325</v>
+        <v>235.6353732339073</v>
       </c>
       <c r="N21" t="n">
-        <v>411.2113108926013</v>
+        <v>377.2937466721836</v>
       </c>
       <c r="O21" t="n">
-        <v>513.692897236582</v>
+        <v>479.7753330161643</v>
       </c>
       <c r="P21" t="n">
-        <v>572.3570643970758</v>
+        <v>538.439500176658</v>
       </c>
       <c r="Q21" t="n">
         <v>572.3570643970758</v>
       </c>
       <c r="R21" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="S21" t="n">
-        <v>351.236388464941</v>
+        <v>445.0509779523929</v>
       </c>
       <c r="T21" t="n">
-        <v>351.236388464941</v>
+        <v>445.0509779523929</v>
       </c>
       <c r="U21" t="n">
-        <v>206.7017762434572</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="V21" t="n">
-        <v>62.16716402197341</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="W21" t="n">
-        <v>62.16716402197341</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="X21" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="Y21" t="n">
         <v>11.44714128794152</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="C22" t="n">
-        <v>146.8369811259323</v>
+        <v>220.6389925342125</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8369811259323</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="E22" t="n">
-        <v>11.44714128794152</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="F22" t="n">
-        <v>11.44714128794152</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="G22" t="n">
-        <v>11.44714128794152</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="H22" t="n">
-        <v>11.44714128794152</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="I22" t="n">
-        <v>11.44714128794152</v>
+        <v>76.10438031272875</v>
       </c>
       <c r="J22" t="n">
         <v>11.44714128794152</v>
@@ -5937,25 +5937,25 @@
         <v>435.9062055688999</v>
       </c>
       <c r="S22" t="n">
-        <v>291.3715933474161</v>
+        <v>435.9062055688999</v>
       </c>
       <c r="T22" t="n">
-        <v>291.3715933474161</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="U22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="V22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="W22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="X22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.8369811259323</v>
+        <v>365.1736047556964</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>417.253403032518</v>
+        <v>395.7651053754904</v>
       </c>
       <c r="C23" t="n">
-        <v>417.253403032518</v>
+        <v>42.022178727835</v>
       </c>
       <c r="D23" t="n">
-        <v>417.253403032518</v>
+        <v>42.022178727835</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J23" t="n">
-        <v>114.9867177991682</v>
+        <v>114.9867177991692</v>
       </c>
       <c r="K23" t="n">
-        <v>331.6067133507504</v>
+        <v>331.6067133507513</v>
       </c>
       <c r="L23" t="n">
-        <v>655.3260351128793</v>
+        <v>655.3260351128802</v>
       </c>
       <c r="M23" t="n">
         <v>1044.402114293388</v>
@@ -6004,37 +6004,37 @@
         <v>1432.93141518456</v>
       </c>
       <c r="O23" t="n">
-        <v>1762.899257874431</v>
+        <v>1762.899257874432</v>
       </c>
       <c r="P23" t="n">
         <v>2000.371604918985</v>
       </c>
       <c r="Q23" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R23" t="n">
-        <v>2016.758590000906</v>
+        <v>2016.758590000907</v>
       </c>
       <c r="S23" t="n">
-        <v>1827.754331311829</v>
+        <v>1827.75433131183</v>
       </c>
       <c r="T23" t="n">
-        <v>1610.881129310196</v>
+        <v>1610.881129310197</v>
       </c>
       <c r="U23" t="n">
-        <v>1610.881129310196</v>
+        <v>1483.899036088051</v>
       </c>
       <c r="V23" t="n">
-        <v>1286.760135765598</v>
+        <v>1159.778042543453</v>
       </c>
       <c r="W23" t="n">
-        <v>1286.760135765598</v>
+        <v>1159.778042543453</v>
       </c>
       <c r="X23" t="n">
-        <v>923.3432526396323</v>
+        <v>1159.778042543453</v>
       </c>
       <c r="Y23" t="n">
-        <v>537.1962148432183</v>
+        <v>773.6310047470392</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>473.0714923163246</v>
+        <v>879.2891892300596</v>
       </c>
       <c r="C24" t="n">
-        <v>283.6592180492884</v>
+        <v>879.2891892300596</v>
       </c>
       <c r="D24" t="n">
-        <v>191.3110202843778</v>
+        <v>718.5090729910913</v>
       </c>
       <c r="E24" t="n">
-        <v>191.3110202843778</v>
+        <v>544.9458691125058</v>
       </c>
       <c r="F24" t="n">
-        <v>191.3110202843778</v>
+        <v>384.5181528297499</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02217872783499</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02217872783499</v>
+        <v>117.4782508051031</v>
       </c>
       <c r="I24" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J24" t="n">
-        <v>78.80223984760165</v>
+        <v>78.80223984760167</v>
       </c>
       <c r="K24" t="n">
         <v>268.42008862428</v>
       </c>
       <c r="L24" t="n">
-        <v>589.671228935078</v>
+        <v>501.1039023683098</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.310821457852</v>
+        <v>920.7434948910836</v>
       </c>
       <c r="N24" t="n">
         <v>1369.909588318236</v>
@@ -6086,34 +6086,34 @@
         <v>1725.061729724624</v>
       </c>
       <c r="P24" t="n">
-        <v>1988.02613222301</v>
+        <v>1988.026132223011</v>
       </c>
       <c r="Q24" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R24" t="n">
         <v>2024.522872681099</v>
       </c>
       <c r="S24" t="n">
-        <v>1848.795590991591</v>
+        <v>1848.795590991592</v>
       </c>
       <c r="T24" t="n">
-        <v>1848.795590991591</v>
+        <v>1635.515598051542</v>
       </c>
       <c r="U24" t="n">
-        <v>1609.23432005731</v>
+        <v>1395.954327117262</v>
       </c>
       <c r="V24" t="n">
-        <v>1366.154601960945</v>
+        <v>1374.32845156444</v>
       </c>
       <c r="W24" t="n">
-        <v>1096.756032691236</v>
+        <v>1104.929882294732</v>
       </c>
       <c r="X24" t="n">
-        <v>877.2480383079321</v>
+        <v>1104.929882294732</v>
       </c>
       <c r="Y24" t="n">
-        <v>651.6073452432597</v>
+        <v>879.2891892300596</v>
       </c>
     </row>
     <row r="25">
@@ -6126,28 +6126,28 @@
         <v>210.1607453661909</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="E25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="F25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="H25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="I25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J25" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="K25" t="n">
         <v>67.13990698807753</v>
@@ -6174,22 +6174,22 @@
         <v>466.4812430087933</v>
       </c>
       <c r="S25" t="n">
-        <v>466.4812430087933</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="T25" t="n">
-        <v>466.4812430087933</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="U25" t="n">
-        <v>466.4812430087933</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="V25" t="n">
-        <v>466.4812430087933</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="W25" t="n">
-        <v>210.1607453661909</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="X25" t="n">
-        <v>210.1607453661909</v>
+        <v>429.4953643704014</v>
       </c>
       <c r="Y25" t="n">
         <v>210.1607453661909</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>670.8092126461815</v>
+        <v>443.3652979887778</v>
       </c>
       <c r="C26" t="n">
-        <v>670.8092126461815</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="D26" t="n">
-        <v>670.8092126461815</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="E26" t="n">
-        <v>670.8092126461815</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="F26" t="n">
-        <v>670.8092126461815</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="G26" t="n">
-        <v>249.5312841376141</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02217872783499</v>
+        <v>89.6223713411224</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J26" t="n">
-        <v>114.9867177991688</v>
+        <v>114.9867177991691</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6067133507509</v>
+        <v>331.6067133507513</v>
       </c>
       <c r="L26" t="n">
-        <v>655.3260351128797</v>
+        <v>655.3260351128802</v>
       </c>
       <c r="M26" t="n">
-        <v>1044.402114293388</v>
+        <v>1044.402114293389</v>
       </c>
       <c r="N26" t="n">
         <v>1432.93141518456</v>
@@ -6247,31 +6247,31 @@
         <v>2000.371604918985</v>
       </c>
       <c r="Q26" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R26" t="n">
-        <v>2016.758590000906</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="S26" t="n">
-        <v>1827.754331311829</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="T26" t="n">
-        <v>1610.881129310196</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="U26" t="n">
-        <v>1358.347089316745</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="V26" t="n">
-        <v>1034.226095772147</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="W26" t="n">
-        <v>1034.226095772147</v>
+        <v>1570.795118282706</v>
       </c>
       <c r="X26" t="n">
-        <v>670.8092126461815</v>
+        <v>1207.378235156741</v>
       </c>
       <c r="Y26" t="n">
-        <v>670.8092126461815</v>
+        <v>821.2311973603266</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>404.9976568734568</v>
+        <v>1068.701463497096</v>
       </c>
       <c r="C27" t="n">
-        <v>215.5853826064205</v>
+        <v>879.2891892300596</v>
       </c>
       <c r="D27" t="n">
-        <v>215.5853826064205</v>
+        <v>718.5090729910913</v>
       </c>
       <c r="E27" t="n">
-        <v>42.02217872783499</v>
+        <v>544.9458691125058</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02217872783499</v>
+        <v>384.5181528297499</v>
       </c>
       <c r="G27" t="n">
-        <v>42.02217872783499</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02217872783499</v>
+        <v>117.4782508051031</v>
       </c>
       <c r="I27" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J27" t="n">
-        <v>78.80223984760165</v>
+        <v>78.80223984760167</v>
       </c>
       <c r="K27" t="n">
-        <v>179.8527620575113</v>
+        <v>179.8527620575117</v>
       </c>
       <c r="L27" t="n">
-        <v>501.1039023683093</v>
+        <v>501.1039023683098</v>
       </c>
       <c r="M27" t="n">
-        <v>920.7434948910832</v>
+        <v>920.7434948910836</v>
       </c>
       <c r="N27" t="n">
         <v>1369.909588318236</v>
@@ -6323,34 +6323,34 @@
         <v>1725.061729724624</v>
       </c>
       <c r="P27" t="n">
-        <v>1988.02613222301</v>
+        <v>1988.026132223011</v>
       </c>
       <c r="Q27" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R27" t="n">
         <v>2024.522872681099</v>
       </c>
       <c r="S27" t="n">
-        <v>1848.795590991591</v>
+        <v>2024.522872681099</v>
       </c>
       <c r="T27" t="n">
-        <v>1635.515598051542</v>
+        <v>1811.24287974105</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.954327117261</v>
+        <v>1811.24287974105</v>
       </c>
       <c r="V27" t="n">
-        <v>1152.874609020895</v>
+        <v>1568.163161644684</v>
       </c>
       <c r="W27" t="n">
-        <v>883.4760397511865</v>
+        <v>1298.764592374975</v>
       </c>
       <c r="X27" t="n">
-        <v>663.9680453678828</v>
+        <v>1247.237316424031</v>
       </c>
       <c r="Y27" t="n">
-        <v>438.3273523032105</v>
+        <v>1247.237316424031</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.02217872783499</v>
+        <v>64.48093520737874</v>
       </c>
       <c r="C28" t="n">
-        <v>42.02217872783499</v>
+        <v>64.48093520737874</v>
       </c>
       <c r="D28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="E28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="F28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="G28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="H28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="I28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J28" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="K28" t="n">
         <v>67.13990698807753</v>
@@ -6408,28 +6408,28 @@
         <v>466.4812430087933</v>
       </c>
       <c r="R28" t="n">
-        <v>297.1180124030405</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S28" t="n">
-        <v>297.1180124030405</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T28" t="n">
-        <v>297.1180124030405</v>
+        <v>243.891966182094</v>
       </c>
       <c r="U28" t="n">
-        <v>42.02217872783499</v>
+        <v>243.891966182094</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02217872783499</v>
+        <v>243.891966182094</v>
       </c>
       <c r="W28" t="n">
-        <v>42.02217872783499</v>
+        <v>243.891966182094</v>
       </c>
       <c r="X28" t="n">
-        <v>42.02217872783499</v>
+        <v>243.891966182094</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.02217872783499</v>
+        <v>243.891966182094</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1158.227033522671</v>
+        <v>964.8774118525737</v>
       </c>
       <c r="C29" t="n">
-        <v>804.4841068750159</v>
+        <v>964.8774118525737</v>
       </c>
       <c r="D29" t="n">
-        <v>463.3001072364025</v>
+        <v>623.6934122139603</v>
       </c>
       <c r="E29" t="n">
-        <v>463.3001072364025</v>
+        <v>623.6934122139603</v>
       </c>
       <c r="F29" t="n">
-        <v>463.3001072364025</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02217872783499</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02217872783499</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J29" t="n">
         <v>114.9867177991684</v>
       </c>
       <c r="K29" t="n">
-        <v>331.6067133507505</v>
+        <v>331.6067133507513</v>
       </c>
       <c r="L29" t="n">
-        <v>655.3260351128794</v>
+        <v>655.3260351128802</v>
       </c>
       <c r="M29" t="n">
         <v>1044.402114293388</v>
@@ -6478,37 +6478,37 @@
         <v>1432.93141518456</v>
       </c>
       <c r="O29" t="n">
-        <v>1762.899257874431</v>
+        <v>1762.899257874432</v>
       </c>
       <c r="P29" t="n">
         <v>2000.371604918985</v>
       </c>
       <c r="Q29" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R29" t="n">
-        <v>2016.758590000906</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="S29" t="n">
-        <v>1827.754331311829</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="T29" t="n">
-        <v>1827.754331311829</v>
+        <v>1912.104677702673</v>
       </c>
       <c r="U29" t="n">
-        <v>1575.220291318378</v>
+        <v>1675.145443193586</v>
       </c>
       <c r="V29" t="n">
-        <v>1251.099297773781</v>
+        <v>1351.024449648988</v>
       </c>
       <c r="W29" t="n">
-        <v>1251.099297773781</v>
+        <v>1351.024449648988</v>
       </c>
       <c r="X29" t="n">
-        <v>1251.099297773781</v>
+        <v>1351.024449648988</v>
       </c>
       <c r="Y29" t="n">
-        <v>1158.227033522671</v>
+        <v>964.8774118525737</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.7914993762754</v>
+        <v>907.9213472581276</v>
       </c>
       <c r="C30" t="n">
-        <v>259.7914993762754</v>
+        <v>718.5090729910913</v>
       </c>
       <c r="D30" t="n">
-        <v>215.5853826064205</v>
+        <v>718.5090729910913</v>
       </c>
       <c r="E30" t="n">
-        <v>42.02217872783499</v>
+        <v>544.9458691125058</v>
       </c>
       <c r="F30" t="n">
-        <v>42.02217872783499</v>
+        <v>384.5181528297499</v>
       </c>
       <c r="G30" t="n">
-        <v>42.02217872783499</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02217872783499</v>
+        <v>117.4782508051031</v>
       </c>
       <c r="I30" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J30" t="n">
-        <v>78.80223984760165</v>
+        <v>78.80223984760167</v>
       </c>
       <c r="K30" t="n">
-        <v>179.8527620575113</v>
+        <v>179.8527620575117</v>
       </c>
       <c r="L30" t="n">
-        <v>501.1039023683093</v>
+        <v>501.1039023683098</v>
       </c>
       <c r="M30" t="n">
-        <v>920.7434948910832</v>
+        <v>920.7434948910836</v>
       </c>
       <c r="N30" t="n">
         <v>1369.909588318236</v>
@@ -6560,34 +6560,34 @@
         <v>1725.061729724624</v>
       </c>
       <c r="P30" t="n">
-        <v>1988.02613222301</v>
+        <v>1988.026132223011</v>
       </c>
       <c r="Q30" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.522872681099</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="S30" t="n">
-        <v>1848.795590991591</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="T30" t="n">
-        <v>1635.515598051542</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.954327117261</v>
+        <v>1861.547665457469</v>
       </c>
       <c r="V30" t="n">
-        <v>1152.874609020895</v>
+        <v>1618.467947361103</v>
       </c>
       <c r="W30" t="n">
-        <v>883.4760397511865</v>
+        <v>1349.069378091394</v>
       </c>
       <c r="X30" t="n">
-        <v>663.9680453678828</v>
+        <v>1129.561383708091</v>
       </c>
       <c r="Y30" t="n">
-        <v>438.3273523032105</v>
+        <v>1086.457200185063</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="C31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="E31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="F31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="G31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="H31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="I31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J31" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="K31" t="n">
         <v>67.13990698807753</v>
@@ -6642,31 +6642,31 @@
         <v>466.4812430087933</v>
       </c>
       <c r="Q31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S31" t="n">
-        <v>266.1832447967669</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T31" t="n">
-        <v>266.1832447967669</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="U31" t="n">
-        <v>266.1832447967669</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="V31" t="n">
-        <v>266.1832447967669</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="W31" t="n">
-        <v>266.1832447967669</v>
+        <v>173.2381045347173</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02217872783499</v>
+        <v>173.2381045347173</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.02217872783499</v>
+        <v>173.2381045347173</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.02217872783499</v>
+        <v>1053.956518666444</v>
       </c>
       <c r="C32" t="n">
-        <v>42.02217872783499</v>
+        <v>1053.956518666444</v>
       </c>
       <c r="D32" t="n">
-        <v>42.02217872783499</v>
+        <v>1044.971340722528</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02217872783499</v>
+        <v>1044.971340722528</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02217872783499</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02217872783499</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02217872783499</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J32" t="n">
-        <v>114.9867177991684</v>
+        <v>114.9867177991692</v>
       </c>
       <c r="K32" t="n">
-        <v>331.6067133507505</v>
+        <v>331.6067133507513</v>
       </c>
       <c r="L32" t="n">
-        <v>655.3260351128794</v>
+        <v>655.3260351128802</v>
       </c>
       <c r="M32" t="n">
         <v>1044.402114293388</v>
@@ -6715,37 +6715,37 @@
         <v>1432.93141518456</v>
       </c>
       <c r="O32" t="n">
-        <v>1762.899257874431</v>
+        <v>1762.899257874432</v>
       </c>
       <c r="P32" t="n">
         <v>2000.371604918985</v>
       </c>
       <c r="Q32" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R32" t="n">
-        <v>2016.758590000906</v>
+        <v>2016.758590000907</v>
       </c>
       <c r="S32" t="n">
-        <v>1827.754331311829</v>
+        <v>2016.758590000907</v>
       </c>
       <c r="T32" t="n">
-        <v>1610.881129310196</v>
+        <v>2016.758590000907</v>
       </c>
       <c r="U32" t="n">
-        <v>1358.347089316745</v>
+        <v>1764.224550007456</v>
       </c>
       <c r="V32" t="n">
-        <v>1034.226095772147</v>
+        <v>1440.103556462858</v>
       </c>
       <c r="W32" t="n">
-        <v>692.9165363521809</v>
+        <v>1440.103556462858</v>
       </c>
       <c r="X32" t="n">
-        <v>329.4996532262151</v>
+        <v>1440.103556462858</v>
       </c>
       <c r="Y32" t="n">
-        <v>42.02217872783499</v>
+        <v>1053.956518666444</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.0820566846876</v>
+        <v>336.3775630869268</v>
       </c>
       <c r="C33" t="n">
-        <v>686.0820566846876</v>
+        <v>336.3775630869268</v>
       </c>
       <c r="D33" t="n">
-        <v>525.3019404457193</v>
+        <v>336.3775630869268</v>
       </c>
       <c r="E33" t="n">
-        <v>351.7387365671337</v>
+        <v>336.3775630869268</v>
       </c>
       <c r="F33" t="n">
-        <v>191.3110202843778</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="G33" t="n">
-        <v>42.02217872783499</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="H33" t="n">
-        <v>42.02217872783499</v>
+        <v>117.4782508051031</v>
       </c>
       <c r="I33" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J33" t="n">
-        <v>78.80223984760165</v>
+        <v>78.80223984760167</v>
       </c>
       <c r="K33" t="n">
-        <v>268.42008862428</v>
+        <v>179.8527620575117</v>
       </c>
       <c r="L33" t="n">
-        <v>501.1039023683093</v>
+        <v>501.1039023683098</v>
       </c>
       <c r="M33" t="n">
-        <v>920.7434948910832</v>
+        <v>920.7434948910836</v>
       </c>
       <c r="N33" t="n">
         <v>1369.909588318236</v>
@@ -6797,34 +6797,34 @@
         <v>1725.061729724624</v>
       </c>
       <c r="P33" t="n">
-        <v>1988.02613222301</v>
+        <v>1988.026132223011</v>
       </c>
       <c r="Q33" t="n">
-        <v>2101.108936391749</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.522872681099</v>
+        <v>2101.10893639175</v>
       </c>
       <c r="S33" t="n">
-        <v>1848.795590991591</v>
+        <v>1925.381654702243</v>
       </c>
       <c r="T33" t="n">
-        <v>1635.515598051542</v>
+        <v>1712.101661762193</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.954327117261</v>
+        <v>1472.540390827912</v>
       </c>
       <c r="V33" t="n">
-        <v>1152.874609020895</v>
+        <v>1229.460672731547</v>
       </c>
       <c r="W33" t="n">
-        <v>1131.230744132664</v>
+        <v>960.0621034618379</v>
       </c>
       <c r="X33" t="n">
-        <v>911.72274974936</v>
+        <v>740.5541090785342</v>
       </c>
       <c r="Y33" t="n">
-        <v>686.0820566846876</v>
+        <v>514.9134160138619</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.02217872783499</v>
+        <v>188.6713203952195</v>
       </c>
       <c r="C34" t="n">
-        <v>42.02217872783499</v>
+        <v>188.6713203952195</v>
       </c>
       <c r="D34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="E34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="F34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="G34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="H34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="J34" t="n">
-        <v>42.02217872783499</v>
+        <v>42.022178727835</v>
       </c>
       <c r="K34" t="n">
         <v>67.13990698807753</v>
@@ -6879,31 +6879,31 @@
         <v>466.4812430087933</v>
       </c>
       <c r="Q34" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R34" t="n">
-        <v>235.8856911495932</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S34" t="n">
-        <v>235.8856911495932</v>
+        <v>242.6652521580509</v>
       </c>
       <c r="T34" t="n">
-        <v>235.8856911495932</v>
+        <v>242.6652521580509</v>
       </c>
       <c r="U34" t="n">
-        <v>42.02217872783499</v>
+        <v>242.6652521580509</v>
       </c>
       <c r="V34" t="n">
-        <v>42.02217872783499</v>
+        <v>242.6652521580509</v>
       </c>
       <c r="W34" t="n">
-        <v>42.02217872783499</v>
+        <v>188.6713203952195</v>
       </c>
       <c r="X34" t="n">
-        <v>42.02217872783499</v>
+        <v>188.6713203952195</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.02217872783499</v>
+        <v>188.6713203952195</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>809.3964217066847</v>
+        <v>717.4293128857349</v>
       </c>
       <c r="C35" t="n">
-        <v>809.3964217066847</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="D35" t="n">
-        <v>581.1316027361376</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="E35" t="n">
-        <v>205.9003784314546</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="F35" t="n">
-        <v>205.9003784314546</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="G35" t="n">
-        <v>205.9003784314546</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="H35" t="n">
-        <v>205.9003784314546</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="I35" t="n">
         <v>31.50111427867622</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4656533500096</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="K35" t="n">
-        <v>321.0856489015918</v>
+        <v>248.1211098302583</v>
       </c>
       <c r="L35" t="n">
-        <v>376.8669483053157</v>
+        <v>571.8404315923872</v>
       </c>
       <c r="M35" t="n">
-        <v>518.3488918354493</v>
+        <v>960.9165107728954</v>
       </c>
       <c r="N35" t="n">
-        <v>906.8781927266211</v>
+        <v>1214.055831465556</v>
       </c>
       <c r="O35" t="n">
-        <v>1236.846035416492</v>
+        <v>1544.023674155427</v>
       </c>
       <c r="P35" t="n">
-        <v>1474.318382461046</v>
+        <v>1575.055713933811</v>
       </c>
       <c r="Q35" t="n">
         <v>1575.055713933811</v>
@@ -6964,25 +6964,25 @@
         <v>1575.055713933811</v>
       </c>
       <c r="S35" t="n">
-        <v>1386.051455244734</v>
+        <v>1575.055713933811</v>
       </c>
       <c r="T35" t="n">
-        <v>1386.051455244734</v>
+        <v>1575.055713933811</v>
       </c>
       <c r="U35" t="n">
-        <v>1133.517415251283</v>
+        <v>1322.52167394036</v>
       </c>
       <c r="V35" t="n">
-        <v>809.3964217066847</v>
+        <v>1322.52167394036</v>
       </c>
       <c r="W35" t="n">
-        <v>809.3964217066847</v>
+        <v>1095.295212257284</v>
       </c>
       <c r="X35" t="n">
-        <v>809.3964217066847</v>
+        <v>1095.295212257284</v>
       </c>
       <c r="Y35" t="n">
-        <v>809.3964217066847</v>
+        <v>1095.295212257284</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>691.0467501489843</v>
+        <v>630.3603807843222</v>
       </c>
       <c r="C36" t="n">
-        <v>501.634475881948</v>
+        <v>440.9481065172859</v>
       </c>
       <c r="D36" t="n">
-        <v>340.8543596429797</v>
+        <v>440.9481065172859</v>
       </c>
       <c r="E36" t="n">
-        <v>340.8543596429797</v>
+        <v>267.3849026387003</v>
       </c>
       <c r="F36" t="n">
-        <v>298.541016303323</v>
+        <v>106.9571863559444</v>
       </c>
       <c r="G36" t="n">
-        <v>149.2521747467802</v>
+        <v>106.9571863559444</v>
       </c>
       <c r="H36" t="n">
-        <v>31.50111427867622</v>
+        <v>106.9571863559444</v>
       </c>
       <c r="I36" t="n">
         <v>31.50111427867622</v>
       </c>
       <c r="J36" t="n">
-        <v>68.28117539844288</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8990241751212</v>
+        <v>221.1189630553546</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1501644859193</v>
+        <v>542.3701033661526</v>
       </c>
       <c r="M36" t="n">
-        <v>700.0306445117932</v>
+        <v>932.1963925647709</v>
       </c>
       <c r="N36" t="n">
-        <v>1089.856933710411</v>
+        <v>1300.827156260598</v>
       </c>
       <c r="O36" t="n">
-        <v>1445.0090751168</v>
+        <v>1403.308742604578</v>
       </c>
       <c r="P36" t="n">
-        <v>1503.673242277293</v>
+        <v>1461.972909765072</v>
       </c>
       <c r="Q36" t="n">
         <v>1575.055713933811</v>
       </c>
       <c r="R36" t="n">
-        <v>1575.055713933811</v>
+        <v>1498.46965022316</v>
       </c>
       <c r="S36" t="n">
-        <v>1399.328432244303</v>
+        <v>1498.46965022316</v>
       </c>
       <c r="T36" t="n">
-        <v>1399.328432244303</v>
+        <v>1498.46965022316</v>
       </c>
       <c r="U36" t="n">
-        <v>1159.767161310023</v>
+        <v>1258.908379288879</v>
       </c>
       <c r="V36" t="n">
-        <v>916.6874432136567</v>
+        <v>1015.828661192513</v>
       </c>
       <c r="W36" t="n">
-        <v>916.6874432136567</v>
+        <v>808.8962337112573</v>
       </c>
       <c r="X36" t="n">
-        <v>916.6874432136567</v>
+        <v>808.8962337112573</v>
       </c>
       <c r="Y36" t="n">
-        <v>691.0467501489843</v>
+        <v>808.8962337112573</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>31.50111427867622</v>
       </c>
       <c r="K37" t="n">
-        <v>56.61884253891875</v>
+        <v>56.61884253891876</v>
       </c>
       <c r="L37" t="n">
         <v>141.8481328892433</v>
@@ -7125,22 +7125,22 @@
         <v>455.9601785596346</v>
       </c>
       <c r="T37" t="n">
-        <v>455.9601785596346</v>
+        <v>323.0295749038095</v>
       </c>
       <c r="U37" t="n">
-        <v>164.4317179345013</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="V37" t="n">
-        <v>164.4317179345013</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="W37" t="n">
-        <v>164.4317179345013</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="X37" t="n">
-        <v>164.4317179345013</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="Y37" t="n">
-        <v>164.4317179345013</v>
+        <v>31.50111427867622</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1180.726724731287</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="C38" t="n">
-        <v>826.9837980836312</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="D38" t="n">
-        <v>826.9837980836312</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="E38" t="n">
-        <v>826.9837980836312</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="F38" t="n">
-        <v>429.2424561811537</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="G38" t="n">
-        <v>31.50111427867622</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="H38" t="n">
         <v>31.50111427867622</v>
@@ -7174,25 +7174,25 @@
         <v>31.50111427867622</v>
       </c>
       <c r="J38" t="n">
-        <v>77.44605936265972</v>
+        <v>104.4656533500096</v>
       </c>
       <c r="K38" t="n">
-        <v>86.1202898415882</v>
+        <v>321.0856489015918</v>
       </c>
       <c r="L38" t="n">
-        <v>409.8396116037171</v>
+        <v>644.8049706637206</v>
       </c>
       <c r="M38" t="n">
-        <v>798.9156907842254</v>
+        <v>969.0801313852957</v>
       </c>
       <c r="N38" t="n">
-        <v>906.8781927266211</v>
+        <v>1357.609432276467</v>
       </c>
       <c r="O38" t="n">
-        <v>1236.846035416492</v>
+        <v>1443.286342682663</v>
       </c>
       <c r="P38" t="n">
-        <v>1474.318382461046</v>
+        <v>1474.318382461047</v>
       </c>
       <c r="Q38" t="n">
         <v>1575.055713933811</v>
@@ -7207,19 +7207,19 @@
         <v>1575.055713933811</v>
       </c>
       <c r="U38" t="n">
-        <v>1575.055713933811</v>
+        <v>1322.52167394036</v>
       </c>
       <c r="V38" t="n">
-        <v>1575.055713933811</v>
+        <v>998.4006803957622</v>
       </c>
       <c r="W38" t="n">
-        <v>1575.055713933811</v>
+        <v>727.1032693640453</v>
       </c>
       <c r="X38" t="n">
-        <v>1558.592624102836</v>
+        <v>363.6863862380795</v>
       </c>
       <c r="Y38" t="n">
-        <v>1558.592624102836</v>
+        <v>363.6863862380795</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>704.5455502198091</v>
+        <v>384.095469628734</v>
       </c>
       <c r="C39" t="n">
-        <v>515.1332759527728</v>
+        <v>384.095469628734</v>
       </c>
       <c r="D39" t="n">
-        <v>354.3531597138046</v>
+        <v>384.095469628734</v>
       </c>
       <c r="E39" t="n">
-        <v>180.789955835219</v>
+        <v>210.5322657501484</v>
       </c>
       <c r="F39" t="n">
-        <v>180.789955835219</v>
+        <v>50.1045494673925</v>
       </c>
       <c r="G39" t="n">
         <v>31.50111427867622</v>
@@ -7253,22 +7253,22 @@
         <v>31.50111427867622</v>
       </c>
       <c r="J39" t="n">
-        <v>68.28117539844288</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8990241751212</v>
+        <v>124.9812604937464</v>
       </c>
       <c r="L39" t="n">
-        <v>425.4545073921417</v>
+        <v>446.2324008045445</v>
       </c>
       <c r="M39" t="n">
-        <v>815.2807965907599</v>
+        <v>567.1128808304184</v>
       </c>
       <c r="N39" t="n">
-        <v>956.9391700290362</v>
+        <v>956.9391700290366</v>
       </c>
       <c r="O39" t="n">
-        <v>1312.091311435424</v>
+        <v>1312.091311435425</v>
       </c>
       <c r="P39" t="n">
         <v>1575.055713933811</v>
@@ -7283,22 +7283,22 @@
         <v>1575.055713933811</v>
       </c>
       <c r="T39" t="n">
-        <v>1575.055713933811</v>
+        <v>1361.775720993762</v>
       </c>
       <c r="U39" t="n">
-        <v>1575.055713933811</v>
+        <v>1122.214450059481</v>
       </c>
       <c r="V39" t="n">
-        <v>1378.120665481125</v>
+        <v>879.134731963115</v>
       </c>
       <c r="W39" t="n">
-        <v>1108.722096211417</v>
+        <v>609.7361626934063</v>
       </c>
       <c r="X39" t="n">
-        <v>1108.722096211417</v>
+        <v>609.7361626934063</v>
       </c>
       <c r="Y39" t="n">
-        <v>883.0814031467442</v>
+        <v>384.095469628734</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="C40" t="n">
-        <v>1355.584072736677</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="D40" t="n">
-        <v>1355.584072736677</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="E40" t="n">
-        <v>1355.584072736677</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="F40" t="n">
-        <v>1215.25388867764</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="G40" t="n">
-        <v>1215.25388867764</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="H40" t="n">
-        <v>1215.25388867764</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="I40" t="n">
-        <v>1215.25388867764</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="J40" t="n">
-        <v>1150.596649652852</v>
+        <v>31.50111427867622</v>
       </c>
       <c r="K40" t="n">
-        <v>1175.714377913095</v>
+        <v>56.61884253891876</v>
       </c>
       <c r="L40" t="n">
-        <v>1260.94366826342</v>
+        <v>141.8481328892433</v>
       </c>
       <c r="M40" t="n">
-        <v>1359.401894558892</v>
+        <v>240.3063591847155</v>
       </c>
       <c r="N40" t="n">
-        <v>1463.535140557577</v>
+        <v>344.4396051834008</v>
       </c>
       <c r="O40" t="n">
-        <v>1537.721401337363</v>
+        <v>418.6258659631868</v>
       </c>
       <c r="P40" t="n">
-        <v>1575.055713933811</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="Q40" t="n">
-        <v>1575.055713933811</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="R40" t="n">
-        <v>1575.055713933811</v>
+        <v>455.9601785596346</v>
       </c>
       <c r="S40" t="n">
-        <v>1523.722639375033</v>
+        <v>232.1441877088921</v>
       </c>
       <c r="T40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="U40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="V40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="W40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
       <c r="Y40" t="n">
-        <v>1523.722639375033</v>
+        <v>174.6083276243581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1124.039986227887</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="C41" t="n">
-        <v>1124.039986227887</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="D41" t="n">
-        <v>1124.039986227887</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="E41" t="n">
-        <v>748.8087619232044</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="F41" t="n">
-        <v>748.8087619232044</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="G41" t="n">
-        <v>362.7603093992968</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="H41" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="I41" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J41" t="n">
-        <v>103.5395765112269</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K41" t="n">
-        <v>112.2138069901554</v>
+        <v>39.24926791882198</v>
       </c>
       <c r="L41" t="n">
-        <v>435.9331287522842</v>
+        <v>103.8421741501212</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2992170709661</v>
+        <v>482.2082624688032</v>
       </c>
       <c r="N41" t="n">
-        <v>1192.665305389648</v>
+        <v>860.5743507874852</v>
       </c>
       <c r="O41" t="n">
-        <v>1497.71983221629</v>
+        <v>1190.542193477356</v>
       </c>
       <c r="P41" t="n">
-        <v>1528.751871994674</v>
+        <v>1428.01454052191</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.401525603831</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="S41" t="n">
-        <v>1444.401525603831</v>
+        <v>1339.747613305598</v>
       </c>
       <c r="T41" t="n">
-        <v>1444.401525603831</v>
+        <v>1339.747613305598</v>
       </c>
       <c r="U41" t="n">
-        <v>1191.86748561038</v>
+        <v>1087.213573312147</v>
       </c>
       <c r="V41" t="n">
-        <v>1191.86748561038</v>
+        <v>763.0925797675487</v>
       </c>
       <c r="W41" t="n">
-        <v>1191.86748561038</v>
+        <v>421.7830203475822</v>
       </c>
       <c r="X41" t="n">
-        <v>1191.86748561038</v>
+        <v>58.36613722161638</v>
       </c>
       <c r="Y41" t="n">
-        <v>1191.86748561038</v>
+        <v>58.36613722161638</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>870.3460280954085</v>
+        <v>340.2915952791922</v>
       </c>
       <c r="C42" t="n">
-        <v>680.9337538283722</v>
+        <v>340.2915952791922</v>
       </c>
       <c r="D42" t="n">
-        <v>680.9337538283722</v>
+        <v>340.2915952791922</v>
       </c>
       <c r="E42" t="n">
-        <v>507.3705499497867</v>
+        <v>340.2915952791922</v>
       </c>
       <c r="F42" t="n">
-        <v>346.9428336670308</v>
+        <v>179.8638789964363</v>
       </c>
       <c r="G42" t="n">
-        <v>197.6539921104879</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="H42" t="n">
-        <v>79.90293164238399</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="I42" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J42" t="n">
-        <v>67.35509855966015</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K42" t="n">
-        <v>256.9729473363385</v>
+        <v>220.1928862165718</v>
       </c>
       <c r="L42" t="n">
-        <v>340.3225893280615</v>
+        <v>541.4440265273699</v>
       </c>
       <c r="M42" t="n">
-        <v>718.6886776467433</v>
+        <v>919.8101148460519</v>
       </c>
       <c r="N42" t="n">
-        <v>1001.852759259053</v>
+        <v>1254.523314321461</v>
       </c>
       <c r="O42" t="n">
-        <v>1357.004900665441</v>
+        <v>1357.004900665442</v>
       </c>
       <c r="P42" t="n">
-        <v>1415.669067825935</v>
+        <v>1415.669067825936</v>
       </c>
       <c r="Q42" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="R42" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="S42" t="n">
-        <v>1353.024590305167</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="T42" t="n">
-        <v>1139.744597365117</v>
+        <v>1315.471879054625</v>
       </c>
       <c r="U42" t="n">
-        <v>1139.744597365117</v>
+        <v>1075.910608120344</v>
       </c>
       <c r="V42" t="n">
-        <v>1139.744597365117</v>
+        <v>832.8308900239786</v>
       </c>
       <c r="W42" t="n">
-        <v>870.3460280954085</v>
+        <v>563.4323207542699</v>
       </c>
       <c r="X42" t="n">
-        <v>870.3460280954085</v>
+        <v>343.9243263709662</v>
       </c>
       <c r="Y42" t="n">
-        <v>870.3460280954085</v>
+        <v>340.2915952791922</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="C43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="D43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="E43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="F43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="G43" t="n">
-        <v>1168.950046738503</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="H43" t="n">
-        <v>1168.950046738503</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="I43" t="n">
-        <v>1168.950046738503</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J43" t="n">
-        <v>1104.292807713716</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K43" t="n">
-        <v>1129.410535973958</v>
+        <v>55.69276570013603</v>
       </c>
       <c r="L43" t="n">
-        <v>1214.639826324283</v>
+        <v>140.9220560504606</v>
       </c>
       <c r="M43" t="n">
-        <v>1313.098052619755</v>
+        <v>239.3802823459328</v>
       </c>
       <c r="N43" t="n">
-        <v>1417.23129861844</v>
+        <v>343.5135283446181</v>
       </c>
       <c r="O43" t="n">
-        <v>1491.417559398226</v>
+        <v>417.699789124404</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="Q43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="R43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="S43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="T43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="U43" t="n">
-        <v>1338.551518977174</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.551518977174</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.551518977174</v>
+        <v>161.7909632467758</v>
       </c>
       <c r="X43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.551518977174</v>
+        <v>30.5750374398935</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.3884801219077</v>
+        <v>1352.30243094517</v>
       </c>
       <c r="C44" t="n">
-        <v>140.3884801219077</v>
+        <v>1352.30243094517</v>
       </c>
       <c r="D44" t="n">
-        <v>140.3884801219077</v>
+        <v>1352.30243094517</v>
       </c>
       <c r="E44" t="n">
-        <v>30.57503743989348</v>
+        <v>977.0712066404874</v>
       </c>
       <c r="F44" t="n">
-        <v>30.57503743989348</v>
+        <v>591.0227541165796</v>
       </c>
       <c r="G44" t="n">
-        <v>30.57503743989348</v>
+        <v>204.9743015926718</v>
       </c>
       <c r="H44" t="n">
-        <v>30.57503743989348</v>
+        <v>204.9743015926718</v>
       </c>
       <c r="I44" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J44" t="n">
-        <v>101.8444655711007</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K44" t="n">
-        <v>318.4644611226828</v>
+        <v>39.24926791882198</v>
       </c>
       <c r="L44" t="n">
-        <v>374.2457605264067</v>
+        <v>103.8421741501212</v>
       </c>
       <c r="M44" t="n">
-        <v>752.6118488450885</v>
+        <v>482.2082624688032</v>
       </c>
       <c r="N44" t="n">
-        <v>860.5743507874843</v>
+        <v>860.5743507874852</v>
       </c>
       <c r="O44" t="n">
         <v>1190.542193477356</v>
       </c>
       <c r="P44" t="n">
-        <v>1428.014540521909</v>
+        <v>1428.01454052191</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.401525603831</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="S44" t="n">
-        <v>1444.401525603831</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="T44" t="n">
-        <v>1444.401525603831</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="U44" t="n">
-        <v>1191.86748561038</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="V44" t="n">
-        <v>867.7464920657818</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="W44" t="n">
-        <v>526.4369326458152</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="X44" t="n">
-        <v>526.4369326458152</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="Y44" t="n">
-        <v>140.3884801219077</v>
+        <v>1528.751871994675</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>574.251970001454</v>
+        <v>469.5339304297216</v>
       </c>
       <c r="C45" t="n">
-        <v>384.8396957344177</v>
+        <v>469.5339304297216</v>
       </c>
       <c r="D45" t="n">
-        <v>224.0595794954494</v>
+        <v>308.7538141907534</v>
       </c>
       <c r="E45" t="n">
-        <v>50.49637561686387</v>
+        <v>308.7538141907534</v>
       </c>
       <c r="F45" t="n">
-        <v>50.49637561686387</v>
+        <v>148.3260979079975</v>
       </c>
       <c r="G45" t="n">
-        <v>30.57503743989348</v>
+        <v>148.3260979079975</v>
       </c>
       <c r="H45" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="I45" t="n">
-        <v>30.57503743989348</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J45" t="n">
-        <v>67.35509855966015</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K45" t="n">
-        <v>87.31320848802908</v>
+        <v>220.1928862165718</v>
       </c>
       <c r="L45" t="n">
-        <v>408.5643487988272</v>
+        <v>541.4440265273699</v>
       </c>
       <c r="M45" t="n">
-        <v>768.976954651623</v>
+        <v>919.8101148460519</v>
       </c>
       <c r="N45" t="n">
-        <v>910.6353280898993</v>
+        <v>1298.176203164734</v>
       </c>
       <c r="O45" t="n">
-        <v>1265.787469496287</v>
+        <v>1400.657789508715</v>
       </c>
       <c r="P45" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="Q45" t="n">
-        <v>1528.751871994674</v>
+        <v>1528.751871994675</v>
       </c>
       <c r="R45" t="n">
-        <v>1452.165808284023</v>
+        <v>1452.165808284024</v>
       </c>
       <c r="S45" t="n">
-        <v>1276.438526594516</v>
+        <v>1276.438526594517</v>
       </c>
       <c r="T45" t="n">
-        <v>1063.158533654466</v>
+        <v>1063.158533654467</v>
       </c>
       <c r="U45" t="n">
-        <v>1063.158533654466</v>
+        <v>1063.158533654467</v>
       </c>
       <c r="V45" t="n">
-        <v>1063.158533654466</v>
+        <v>820.0788155581013</v>
       </c>
       <c r="W45" t="n">
-        <v>793.7599643847576</v>
+        <v>550.6802462883926</v>
       </c>
       <c r="X45" t="n">
-        <v>574.251970001454</v>
+        <v>469.5339304297216</v>
       </c>
       <c r="Y45" t="n">
-        <v>574.251970001454</v>
+        <v>469.5339304297216</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="C46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="D46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="E46" t="n">
-        <v>1264.649679285657</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="F46" t="n">
-        <v>1264.649679285657</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="G46" t="n">
-        <v>1264.649679285657</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="H46" t="n">
-        <v>1104.292807713716</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="I46" t="n">
-        <v>1104.292807713716</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="J46" t="n">
-        <v>1104.292807713716</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="K46" t="n">
-        <v>1129.410535973958</v>
+        <v>55.69276570013603</v>
       </c>
       <c r="L46" t="n">
-        <v>1214.639826324283</v>
+        <v>140.9220560504606</v>
       </c>
       <c r="M46" t="n">
-        <v>1313.098052619755</v>
+        <v>239.3802823459328</v>
       </c>
       <c r="N46" t="n">
-        <v>1417.23129861844</v>
+        <v>343.5135283446181</v>
       </c>
       <c r="O46" t="n">
-        <v>1491.417559398226</v>
+        <v>417.699789124404</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="Q46" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="R46" t="n">
-        <v>1359.388641388921</v>
+        <v>455.0341017208519</v>
       </c>
       <c r="S46" t="n">
-        <v>1359.388641388921</v>
+        <v>323.8181759139696</v>
       </c>
       <c r="T46" t="n">
-        <v>1359.388641388921</v>
+        <v>323.8181759139696</v>
       </c>
       <c r="U46" t="n">
-        <v>1359.388641388921</v>
+        <v>323.8181759139696</v>
       </c>
       <c r="V46" t="n">
-        <v>1359.388641388921</v>
+        <v>323.8181759139696</v>
       </c>
       <c r="W46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
       <c r="Y46" t="n">
-        <v>1359.388641388921</v>
+        <v>30.5750374398935</v>
       </c>
     </row>
   </sheetData>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.87305201399531</v>
+        <v>61.08889782430023</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>26.80291519698045</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>100.167810888844</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>40.21569386153726</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>22.46027334943847</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.21584581030493</v>
       </c>
       <c r="P14" t="n">
-        <v>100.167810888844</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K17" t="n">
-        <v>23.70116878183496</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>41.36789521625241</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>34.03623383422268</v>
+        <v>14.5050398186614</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>56.54693235563764</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9242,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>44.55541401193173</v>
+        <v>78.81557989114154</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>34.26016587920982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>35.87305201399531</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>86.74451922682053</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>86.06233322299809</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.82523367209865</v>
+        <v>134.9305315044087</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,7 +9482,7 @@
         <v>44.55541401193173</v>
       </c>
       <c r="K21" t="n">
-        <v>34.26016587920981</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.90502773693211</v>
+        <v>56.16519361614193</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315046</v>
       </c>
       <c r="K23" t="n">
         <v>210.0462273461148</v>
@@ -9722,13 +9722,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>150.8425977296028</v>
       </c>
       <c r="M24" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>221.1519125475835</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>109.5746066315042</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
         <v>210.0462273461148</v>
@@ -9956,7 +9956,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>81.9115275571118</v>
+        <v>81.91152755711224</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -10114,7 +10114,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>210.0462273461156</v>
       </c>
       <c r="L29" t="n">
         <v>270.6444670286918</v>
@@ -10123,7 +10123,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
-        <v>283.4008070189661</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10193,7 +10193,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>81.9115275571118</v>
+        <v>81.91152755711224</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10360,7 +10360,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N32" t="n">
-        <v>283.4008070189661</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10430,10 +10430,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>81.91152755711224</v>
       </c>
       <c r="L33" t="n">
-        <v>150.8425977296023</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>41.18968318782547</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>146.6432512628934</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>35.82523367209865</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10673,19 +10673,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>271.6624335078226</v>
       </c>
       <c r="N36" t="n">
-        <v>250.6746623841837</v>
+        <v>229.2650406641924</v>
       </c>
       <c r="O36" t="n">
-        <v>255.2227828913207</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.00853446068717</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>82.28208745236249</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>225.8292965125138</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10901,19 +10901,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>74.26468311788004</v>
       </c>
       <c r="L39" t="n">
-        <v>85.05640527807833</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>271.6624335078225</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>250.6746623841839</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>8.900612957146762</v>
       </c>
       <c r="M41" t="n">
-        <v>280.4665971156519</v>
+        <v>280.4665971156521</v>
       </c>
       <c r="N41" t="n">
-        <v>273.1349357336222</v>
+        <v>273.1349357336225</v>
       </c>
       <c r="O41" t="n">
-        <v>221.5935519398453</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,22 +11138,22 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>260.0864730230383</v>
+        <v>260.0864730230385</v>
       </c>
       <c r="N42" t="n">
-        <v>142.9350587616499</v>
+        <v>195.0048747849829</v>
       </c>
       <c r="O42" t="n">
-        <v>255.2227828913207</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>107.8623733586491</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.900612957146762</v>
       </c>
       <c r="M44" t="n">
-        <v>280.4665971156518</v>
+        <v>280.4665971156521</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>273.1349357336225</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11375,25 +11375,25 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9516422494161</v>
+        <v>260.0864730230385</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>239.0987018993997</v>
       </c>
       <c r="O45" t="n">
-        <v>255.2227828913207</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>70.13122760148121</v>
       </c>
       <c r="Q45" t="n">
         <v>21.90502773693211</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>242.5739347633486</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23269,16 +23269,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>271.6859440255288</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.0651492234818</v>
+        <v>301.2282296382438</v>
       </c>
       <c r="H11" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I11" t="n">
-        <v>41.14196589676581</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0086995935164</v>
+        <v>118.4953939790317</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>206.3831582112822</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>266.4486478332119</v>
+        <v>250.7722618039652</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.23718878318101</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>56.0048459098812</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>27.65900946209382</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -23387,10 +23387,10 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S12" t="n">
-        <v>42.45670325812748</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T12" t="n">
-        <v>95.31027342541081</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U12" t="n">
         <v>237.165658224938</v>
@@ -23402,10 +23402,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>85.79960882498588</v>
+        <v>101.4759948542326</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>91.87098051954089</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>13.66934463622599</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -23430,16 +23430,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9054575162844</v>
+        <v>142.2309007215899</v>
       </c>
       <c r="H13" t="n">
         <v>158.7533028562218</v>
       </c>
       <c r="I13" t="n">
-        <v>9.42229886119452</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R13" t="n">
-        <v>135.1124005659681</v>
+        <v>36.15629268521059</v>
       </c>
       <c r="S13" t="n">
         <v>221.577830942235</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3633840584323</v>
+        <v>88.85007844394761</v>
       </c>
       <c r="U13" t="n">
         <v>288.6131760188819</v>
       </c>
       <c r="V13" t="n">
-        <v>113.5957095699652</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23497,7 +23497,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>218.6921917666941</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
@@ -23506,16 +23506,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>287.3623300547754</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>285.551843608997</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H14" t="n">
-        <v>328.8634192398093</v>
+        <v>197.3501136253246</v>
       </c>
       <c r="I14" t="n">
-        <v>41.14196589676581</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S14" t="n">
-        <v>55.6009104877015</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T14" t="n">
         <v>214.7044699816169</v>
@@ -23557,13 +23557,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>222.0595442405289</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>250.7722618039652</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>147.7959531409774</v>
       </c>
       <c r="H15" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>74.70151135649544</v>
@@ -23624,13 +23624,13 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S15" t="n">
-        <v>42.45670325812748</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T15" t="n">
         <v>211.1471930106489</v>
       </c>
       <c r="U15" t="n">
-        <v>105.6523526104533</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23639,10 +23639,10 @@
         <v>135.1912779625269</v>
       </c>
       <c r="X15" t="n">
-        <v>101.4759948542326</v>
+        <v>86.53623910317066</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>91.87098051954089</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>106.3696844847195</v>
       </c>
       <c r="G16" t="n">
         <v>167.9054575162844</v>
@@ -23676,7 +23676,7 @@
         <v>140.9356044756792</v>
       </c>
       <c r="J16" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>167.6695982996953</v>
+        <v>36.15629268521059</v>
       </c>
       <c r="S16" t="n">
         <v>221.577830942235</v>
       </c>
       <c r="T16" t="n">
-        <v>88.85007844394761</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U16" t="n">
-        <v>262.9386192241874</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V16" t="n">
         <v>113.5957095699652</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>90.40614979375781</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.9979742785644</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>224.1724718009428</v>
       </c>
       <c r="D17" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>245.4458864814002</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.0651492234818</v>
+        <v>273.9758831242128</v>
       </c>
       <c r="H17" t="n">
-        <v>185.7741531405403</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I17" t="n">
-        <v>172.6552715112505</v>
+        <v>29.56600541198159</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S17" t="n">
-        <v>44.02495000291728</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T17" t="n">
         <v>214.7044699816169</v>
@@ -23791,7 +23791,7 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>177.7905175098831</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>126.5376718909742</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>16.0830489773096</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S18" t="n">
         <v>173.9700088726122</v>
       </c>
       <c r="T18" t="n">
-        <v>211.1471930106489</v>
+        <v>68.05792691137992</v>
       </c>
       <c r="U18" t="n">
         <v>237.165658224938</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>97.5596548161333</v>
       </c>
       <c r="W18" t="n">
         <v>123.6153174777426</v>
       </c>
       <c r="X18" t="n">
-        <v>74.22364834020166</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>97.35126055378966</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>34.52765456569915</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>32.42123953236145</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R19" t="n">
         <v>167.6695982996953</v>
@@ -23946,13 +23946,13 @@
         <v>220.3633840584323</v>
       </c>
       <c r="U19" t="n">
-        <v>215.1972326201838</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>147.2214409900664</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23971,16 +23971,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>307.6793147278773</v>
       </c>
       <c r="D20" t="n">
-        <v>295.2459769889257</v>
+        <v>194.6828935429583</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>260.1099835407446</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>273.9758831242128</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>44.02495000291728</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T20" t="n">
         <v>214.7044699816169</v>
@@ -24031,7 +24031,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>194.8071977264979</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S21" t="n">
-        <v>30.88074277334326</v>
+        <v>47.93698329237621</v>
       </c>
       <c r="T21" t="n">
         <v>211.1471930106489</v>
@@ -24107,16 +24107,16 @@
         <v>94.07639212566906</v>
       </c>
       <c r="V21" t="n">
-        <v>97.5596548161333</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>123.6153174777426</v>
       </c>
       <c r="X21" t="n">
-        <v>167.100091932779</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>80.29502003475667</v>
       </c>
     </row>
     <row r="22">
@@ -24129,13 +24129,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>23.36791487270341</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>2.093384151441768</v>
       </c>
       <c r="E22" t="n">
-        <v>7.640199772614096</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
         <v>138.9268822184467</v>
@@ -24150,7 +24150,7 @@
         <v>140.9356044756792</v>
       </c>
       <c r="J22" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S22" t="n">
-        <v>78.48856484296607</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T22" t="n">
-        <v>220.3633840584323</v>
+        <v>150.3381092533608</v>
       </c>
       <c r="U22" t="n">
-        <v>145.523909919613</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>255.34385668524</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0086995935164</v>
+        <v>124.2964273035924</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>67.74759928931709</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,19 +24338,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>219.2393041181094</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S25" t="n">
-        <v>221.577830942235</v>
+        <v>184.961811090227</v>
       </c>
       <c r="T25" t="n">
         <v>220.3633840584323</v>
@@ -24426,13 +24426,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>36.55341442315893</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
@@ -24457,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H26" t="n">
-        <v>123.429404884128</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I26" t="n">
-        <v>172.6552715112505</v>
+        <v>125.531080824096</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.7540959222096</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>166.3009112480359</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>122.9484813359624</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -24648,16 +24648,16 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S28" t="n">
         <v>221.577830942235</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>36.06830068042848</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24682,7 +24682,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H29" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I29" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>15.41905742952022</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>290.3420258098517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.4082594744222</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>180.7111444462278</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>47.71315411615467</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R31" t="n">
         <v>167.6695982996953</v>
       </c>
       <c r="S31" t="n">
-        <v>83.9028107532416</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T31" t="n">
         <v>220.3633840584323</v>
@@ -24900,10 +24900,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24922,22 +24922,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>328.8768334777503</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I32" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68286766505366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>58.68666982434578</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H33" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>245.2771573376624</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S34" t="n">
-        <v>221.577830942235</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.3633840584323</v>
       </c>
       <c r="U34" t="n">
-        <v>96.68829872134125</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>236.8567146441323</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>111.7899888613856</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
@@ -25171,10 +25171,10 @@
         <v>417.0651492234818</v>
       </c>
       <c r="H35" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T35" t="n">
         <v>214.7044699816169</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>112.9422667595212</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>116.9332292136682</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I36" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T36" t="n">
         <v>211.1471930106489</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>61.84148037056804</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.01562304570126</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25365,7 +25365,7 @@
         <v>221.577830942235</v>
       </c>
       <c r="T37" t="n">
-        <v>220.3633840584323</v>
+        <v>88.76208643916547</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25402,13 +25402,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>9.435321156560804</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>23.30122074002912</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H38" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>172.6552715112505</v>
@@ -25447,16 +25447,16 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>69.31202690436726</v>
       </c>
       <c r="X38" t="n">
-        <v>343.4842553620407</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>129.3785523041483</v>
       </c>
       <c r="H39" t="n">
         <v>116.5735498634229</v>
@@ -25523,13 +25523,13 @@
         <v>173.9700088726122</v>
       </c>
       <c r="T39" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>45.68322294724376</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>167.9054575162844</v>
@@ -25572,7 +25572,7 @@
         <v>140.9356044756792</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S40" t="n">
-        <v>170.7580871290448</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.3633840584323</v>
+        <v>163.4028825747436</v>
       </c>
       <c r="U40" t="n">
         <v>288.6131760188819</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>306.9380159891657</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,16 +25636,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>34.87718122481334</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.3502304559036</v>
       </c>
       <c r="I41" t="n">
         <v>172.6552715112505</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S41" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>214.7044699816169</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25709,13 +25709,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I42" t="n">
-        <v>25.86689609602984</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>219.7878823531693</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H43" t="n">
         <v>158.7533028562218</v>
@@ -25809,7 +25809,7 @@
         <v>140.9356044756792</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>220.3633840584323</v>
       </c>
       <c r="U43" t="n">
-        <v>100.3148265315572</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>92.01568885942905</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>199.4022937388239</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7636038064421</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>21.01128164134479</v>
       </c>
       <c r="G44" t="n">
-        <v>417.0651492234818</v>
+        <v>34.87718122481311</v>
       </c>
       <c r="H44" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I44" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S44" t="n">
         <v>187.1142161021862</v>
@@ -25921,19 +25921,19 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.09759941978143161</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>128.0738283457767</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H45" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>74.70151135649544</v>
@@ -26003,13 +26003,13 @@
         <v>237.165658224938</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>136.9780617393864</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26031,7 +26031,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>47.88456872999348</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26040,7 +26040,7 @@
         <v>167.9054575162844</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I46" t="n">
         <v>140.9356044756792</v>
@@ -26070,10 +26070,10 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>167.6695982996953</v>
       </c>
       <c r="S46" t="n">
-        <v>221.577830942235</v>
+        <v>91.67406439342153</v>
       </c>
       <c r="T46" t="n">
         <v>220.3633840584323</v>
@@ -26085,7 +26085,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383443.9801189483</v>
+        <v>383443.9801189482</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383443.980118948</v>
+        <v>383443.9801189482</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390837.6515972137</v>
+        <v>390837.6515972136</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641021.3791503779</v>
+        <v>641021.3791503778</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>641021.3791503778</v>
+        <v>641021.3791503781</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>641021.3791503778</v>
+        <v>641021.3791503779</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>641021.3791503778</v>
+        <v>641021.3791503782</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>554931.5705314291</v>
+        <v>554931.5705314294</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554931.5705314291</v>
+        <v>554931.5705314295</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>547353.8412814558</v>
+        <v>547353.8412814559</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>547353.8412814556</v>
+        <v>547353.8412814562</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>661448.9963823446</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823449</v>
       </c>
       <c r="D2" t="n">
         <v>661448.9963823447</v>
@@ -26325,7 +26325,7 @@
         <v>276512.8857908171</v>
       </c>
       <c r="F2" t="n">
-        <v>276512.8857908171</v>
+        <v>276512.885790817</v>
       </c>
       <c r="G2" t="n">
         <v>280623.4306424326</v>
@@ -26337,25 +26337,25 @@
         <v>416335.7792005774</v>
       </c>
       <c r="J2" t="n">
-        <v>416335.7792005776</v>
+        <v>416335.7792005774</v>
       </c>
       <c r="K2" t="n">
-        <v>416335.7792005775</v>
+        <v>416335.7792005774</v>
       </c>
       <c r="L2" t="n">
-        <v>416335.7792005775</v>
+        <v>416335.7792005774</v>
       </c>
       <c r="M2" t="n">
-        <v>369636.2986673521</v>
+        <v>369636.298667352</v>
       </c>
       <c r="N2" t="n">
         <v>369636.2986673521</v>
       </c>
       <c r="O2" t="n">
-        <v>365525.7538157363</v>
+        <v>365525.7538157365</v>
       </c>
       <c r="P2" t="n">
-        <v>365525.7538157365</v>
+        <v>365525.7538157366</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3172.797129472087</v>
+        <v>3172.79712947206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>16792.19563179138</v>
       </c>
       <c r="I4" t="n">
+        <v>86303.06082533151</v>
+      </c>
+      <c r="J4" t="n">
         <v>86303.06082533149</v>
       </c>
-      <c r="J4" t="n">
-        <v>86303.0608253315</v>
-      </c>
       <c r="K4" t="n">
-        <v>86303.0608253315</v>
+        <v>86303.06082533151</v>
       </c>
       <c r="L4" t="n">
-        <v>86303.0608253315</v>
+        <v>86303.06082533149</v>
       </c>
       <c r="M4" t="n">
-        <v>62383.93091238475</v>
+        <v>62383.93091238477</v>
       </c>
       <c r="N4" t="n">
         <v>62383.93091238476</v>
       </c>
       <c r="O4" t="n">
-        <v>60278.54012010741</v>
+        <v>60278.54012010744</v>
       </c>
       <c r="P4" t="n">
-        <v>60278.5401201074</v>
+        <v>60278.54012010744</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>20520.02803325525</v>
       </c>
       <c r="I5" t="n">
-        <v>43757.05648757429</v>
+        <v>43757.0564875743</v>
       </c>
       <c r="J5" t="n">
-        <v>43757.05648757429</v>
+        <v>43757.0564875743</v>
       </c>
       <c r="K5" t="n">
-        <v>43757.05648757429</v>
+        <v>43757.0564875743</v>
       </c>
       <c r="L5" t="n">
-        <v>43757.05648757429</v>
+        <v>43757.0564875743</v>
       </c>
       <c r="M5" t="n">
-        <v>35761.04750621362</v>
+        <v>35761.04750621363</v>
       </c>
       <c r="N5" t="n">
-        <v>35761.04750621362</v>
+        <v>35761.04750621363</v>
       </c>
       <c r="O5" t="n">
-        <v>35057.22910873874</v>
+        <v>35057.22910873876</v>
       </c>
       <c r="P5" t="n">
-        <v>35057.22910873874</v>
+        <v>35057.22910873876</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165856.2421929293</v>
+        <v>165811.5783508774</v>
       </c>
       <c r="C6" t="n">
-        <v>165856.2421929292</v>
+        <v>165811.5783508777</v>
       </c>
       <c r="D6" t="n">
-        <v>165856.2421929294</v>
+        <v>165811.5783508776</v>
       </c>
       <c r="E6" t="n">
-        <v>-233055.1417411742</v>
+        <v>-245931.0092696104</v>
       </c>
       <c r="F6" t="n">
-        <v>241825.8135438146</v>
+        <v>228949.9460153784</v>
       </c>
       <c r="G6" t="n">
-        <v>240138.4098479139</v>
+        <v>227399.5604811982</v>
       </c>
       <c r="H6" t="n">
-        <v>243311.206977386</v>
+        <v>230572.3576106703</v>
       </c>
       <c r="I6" t="n">
-        <v>184643.8552494977</v>
+        <v>176428.7508347202</v>
       </c>
       <c r="J6" t="n">
-        <v>286275.6618876718</v>
+        <v>278060.5574728941</v>
       </c>
       <c r="K6" t="n">
-        <v>286275.6618876717</v>
+        <v>278060.557472894</v>
       </c>
       <c r="L6" t="n">
-        <v>286275.6618876717</v>
+        <v>278060.5574728941</v>
       </c>
       <c r="M6" t="n">
-        <v>271491.3202487537</v>
+        <v>261719.5664828686</v>
       </c>
       <c r="N6" t="n">
-        <v>271491.3202487538</v>
+        <v>261719.5664828687</v>
       </c>
       <c r="O6" t="n">
-        <v>270189.9845868902</v>
+        <v>260281.2126592848</v>
       </c>
       <c r="P6" t="n">
-        <v>270189.9845868904</v>
+        <v>260281.2126592849</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>143.0892660992689</v>
       </c>
       <c r="I4" t="n">
-        <v>525.2772340979374</v>
+        <v>525.2772340979375</v>
       </c>
       <c r="J4" t="n">
-        <v>525.2772340979374</v>
+        <v>525.2772340979375</v>
       </c>
       <c r="K4" t="n">
-        <v>525.2772340979374</v>
+        <v>525.2772340979375</v>
       </c>
       <c r="L4" t="n">
-        <v>525.2772340979374</v>
+        <v>525.2772340979375</v>
       </c>
       <c r="M4" t="n">
-        <v>393.7639284834527</v>
+        <v>393.7639284834528</v>
       </c>
       <c r="N4" t="n">
-        <v>393.7639284834527</v>
+        <v>393.7639284834528</v>
       </c>
       <c r="O4" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.57596048478423</v>
+        <v>11.57596048478413</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986683</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.57596048478423</v>
+        <v>11.57596048478413</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>25.21584581030493</v>
       </c>
       <c r="K11" t="n">
         <v>8.761848968614629</v>
       </c>
       <c r="L11" t="n">
-        <v>83.14766206942886</v>
+        <v>56.34474687244841</v>
       </c>
       <c r="M11" t="n">
         <v>101.7213708830166</v>
@@ -35427,10 +35427,10 @@
         <v>86.54233374363133</v>
       </c>
       <c r="P11" t="n">
-        <v>131.5133056144847</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.342641847541952</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>8.761848968614629</v>
@@ -35658,16 +35658,16 @@
         <v>101.7213708830166</v>
       </c>
       <c r="N14" t="n">
-        <v>131.5133056144847</v>
+        <v>109.0530322650462</v>
       </c>
       <c r="O14" t="n">
-        <v>86.54233374363133</v>
+        <v>111.7581795539363</v>
       </c>
       <c r="P14" t="n">
-        <v>131.5133056144847</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>32.46301775044959</v>
+        <v>8.761848968614629</v>
       </c>
       <c r="L17" t="n">
         <v>56.34474687244841</v>
       </c>
       <c r="M17" t="n">
+        <v>101.7213708830166</v>
+      </c>
+      <c r="N17" t="n">
+        <v>123.5580720837076</v>
+      </c>
+      <c r="O17" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="N17" t="n">
-        <v>143.0892660992689</v>
-      </c>
-      <c r="O17" t="n">
-        <v>86.54233374363133</v>
       </c>
       <c r="P17" t="n">
         <v>31.34549472564066</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.2601658792098</v>
       </c>
       <c r="K18" t="n">
         <v>20.15970699835245</v>
       </c>
       <c r="L18" t="n">
-        <v>118.4517234466068</v>
+        <v>84.19155756739696</v>
       </c>
       <c r="M18" t="n">
         <v>122.1014949756302</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>73.70155461750851</v>
       </c>
       <c r="K20" t="n">
         <v>8.761848968614629</v>
       </c>
       <c r="L20" t="n">
-        <v>143.0892660992689</v>
+        <v>56.34474687244841</v>
       </c>
       <c r="M20" t="n">
         <v>101.7213708830166</v>
@@ -36138,10 +36138,10 @@
         <v>86.54233374363133</v>
       </c>
       <c r="P20" t="n">
-        <v>117.4078279486388</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>99.10529783231007</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>54.41987287756226</v>
+        <v>20.15970699835245</v>
       </c>
       <c r="L21" t="n">
         <v>84.19155756739696</v>
@@ -36220,7 +36220,7 @@
         <v>59.25673450554925</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>34.26016587920981</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.70155461750851</v>
+        <v>73.7015546175093</v>
       </c>
       <c r="K23" t="n">
         <v>218.8080763147294</v>
@@ -36442,13 +36442,13 @@
         <v>191.5331805825034</v>
       </c>
       <c r="L24" t="n">
-        <v>324.4961013240385</v>
+        <v>235.0341552969998</v>
       </c>
       <c r="M24" t="n">
         <v>423.8783762856302</v>
       </c>
       <c r="N24" t="n">
-        <v>364.2411786468524</v>
+        <v>453.7031246738916</v>
       </c>
       <c r="O24" t="n">
         <v>358.7395367741295</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.70155461750886</v>
+        <v>73.70155461750851</v>
       </c>
       <c r="K26" t="n">
         <v>218.8080763147294</v>
@@ -36676,7 +36676,7 @@
         <v>37.1515768886532</v>
       </c>
       <c r="K27" t="n">
-        <v>102.0712345554642</v>
+        <v>102.0712345554647</v>
       </c>
       <c r="L27" t="n">
         <v>324.4961013240385</v>
@@ -36834,7 +36834,7 @@
         <v>73.70155461750851</v>
       </c>
       <c r="K29" t="n">
-        <v>218.8080763147294</v>
+        <v>218.8080763147302</v>
       </c>
       <c r="L29" t="n">
         <v>326.9892139011403</v>
@@ -36843,7 +36843,7 @@
         <v>393.0061405863721</v>
       </c>
       <c r="N29" t="n">
-        <v>392.4538392840123</v>
+        <v>392.453839284012</v>
       </c>
       <c r="O29" t="n">
         <v>333.3008512018903</v>
@@ -36913,7 +36913,7 @@
         <v>37.1515768886532</v>
       </c>
       <c r="K30" t="n">
-        <v>102.0712345554642</v>
+        <v>102.0712345554647</v>
       </c>
       <c r="L30" t="n">
         <v>324.4961013240385</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.70155461750851</v>
+        <v>73.7015546175093</v>
       </c>
       <c r="K32" t="n">
         <v>218.8080763147294</v>
@@ -37080,7 +37080,7 @@
         <v>393.0061405863721</v>
       </c>
       <c r="N32" t="n">
-        <v>392.4538392840123</v>
+        <v>392.453839284012</v>
       </c>
       <c r="O32" t="n">
         <v>333.3008512018903</v>
@@ -37150,10 +37150,10 @@
         <v>37.1515768886532</v>
       </c>
       <c r="K33" t="n">
-        <v>191.5331805825034</v>
+        <v>102.0712345554647</v>
       </c>
       <c r="L33" t="n">
-        <v>235.0341552969993</v>
+        <v>324.4961013240385</v>
       </c>
       <c r="M33" t="n">
         <v>423.8783762856302</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>218.8080763147294</v>
       </c>
       <c r="L35" t="n">
-        <v>56.34474687244841</v>
+        <v>326.9892139011403</v>
       </c>
       <c r="M35" t="n">
-        <v>142.911054070842</v>
+        <v>393.0061405863721</v>
       </c>
       <c r="N35" t="n">
-        <v>392.453839284012</v>
+        <v>255.6962835279396</v>
       </c>
       <c r="O35" t="n">
         <v>333.3008512018903</v>
       </c>
       <c r="P35" t="n">
-        <v>239.8710576207614</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.7548802755196</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>191.5331805825034</v>
@@ -37393,19 +37393,19 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M36" t="n">
-        <v>122.1014949756302</v>
+        <v>393.7639284834528</v>
       </c>
       <c r="N36" t="n">
-        <v>393.7639284834527</v>
+        <v>372.3543067634613</v>
       </c>
       <c r="O36" t="n">
-        <v>358.7395367741295</v>
+        <v>103.5167538828088</v>
       </c>
       <c r="P36" t="n">
         <v>59.25673450554925</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.10350672375506</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>46.40903543836718</v>
+        <v>73.70155461750851</v>
       </c>
       <c r="K38" t="n">
-        <v>8.761848968614629</v>
+        <v>218.8080763147294</v>
       </c>
       <c r="L38" t="n">
         <v>326.9892139011403</v>
       </c>
       <c r="M38" t="n">
-        <v>393.0061405863721</v>
+        <v>327.5506673955304</v>
       </c>
       <c r="N38" t="n">
-        <v>109.0530322650462</v>
+        <v>392.453839284012</v>
       </c>
       <c r="O38" t="n">
-        <v>333.3008512018903</v>
+        <v>86.54233374363133</v>
       </c>
       <c r="P38" t="n">
-        <v>239.8710576207614</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q38" t="n">
         <v>101.7548802755196</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>191.5331805825034</v>
+        <v>94.42439011623249</v>
       </c>
       <c r="L39" t="n">
-        <v>169.2479628454753</v>
+        <v>324.4961013240385</v>
       </c>
       <c r="M39" t="n">
-        <v>393.7639284834527</v>
+        <v>122.1014949756302</v>
       </c>
       <c r="N39" t="n">
-        <v>143.0892660992689</v>
+        <v>393.7639284834528</v>
       </c>
       <c r="O39" t="n">
         <v>358.7395367741295</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>8.761848968614629</v>
       </c>
       <c r="L41" t="n">
-        <v>326.9892139011403</v>
+        <v>65.24535982959517</v>
       </c>
       <c r="M41" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="O41" t="n">
-        <v>308.1358856834767</v>
+        <v>333.3008512018903</v>
       </c>
       <c r="P41" t="n">
-        <v>31.34549472564066</v>
+        <v>239.8710576207614</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>191.5331805825034</v>
       </c>
       <c r="L42" t="n">
-        <v>84.19155756739696</v>
+        <v>324.4961013240385</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="N42" t="n">
-        <v>286.0243248609188</v>
+        <v>338.0941408842518</v>
       </c>
       <c r="O42" t="n">
-        <v>358.7395367741295</v>
+        <v>103.5167538828088</v>
       </c>
       <c r="P42" t="n">
         <v>59.25673450554925</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.98932134465376</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>218.8080763147294</v>
+        <v>8.761848968614629</v>
       </c>
       <c r="L44" t="n">
-        <v>56.34474687244841</v>
+        <v>65.24535982959517</v>
       </c>
       <c r="M44" t="n">
-        <v>382.1879679986685</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="N44" t="n">
-        <v>109.0530322650462</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="O44" t="n">
         <v>333.3008512018903</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>20.15970699835245</v>
+        <v>191.5331805825034</v>
       </c>
       <c r="L45" t="n">
         <v>324.4961013240385</v>
       </c>
       <c r="M45" t="n">
-        <v>364.0531372250463</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="N45" t="n">
-        <v>143.0892660992689</v>
+        <v>382.1879679986687</v>
       </c>
       <c r="O45" t="n">
-        <v>358.7395367741295</v>
+        <v>103.5167538828088</v>
       </c>
       <c r="P45" t="n">
-        <v>265.6206085842285</v>
+        <v>129.3879621070305</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
